--- a/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 6,65</t>
+          <t>-13,7; 19,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,94; -4,73</t>
+          <t>-19,14; 4,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -3,03</t>
+          <t>-12,81; 8,01</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,63%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>-4,77%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 11,32</t>
+          <t>-24,82; 50,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,34; -6,8</t>
+          <t>-24,92; 6,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,12; -4,67</t>
+          <t>-19,89; 14,81</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,59</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,42</t>
+          <t>-4,72</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -2,43</t>
+          <t>-10,56; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -5,78</t>
+          <t>-14,54; 0,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -6,13</t>
+          <t>-10,44; 1,33</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,17%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-15,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>-11,24%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -4,27</t>
+          <t>-25,8; 22,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,31; -9,13</t>
+          <t>-29,26; 1,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,79; -9,81</t>
+          <t>-23,48; 3,36</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,03</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-4,37</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 2,35</t>
+          <t>-14,37; 3,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 9,29</t>
+          <t>-11,94; 4,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 3,02</t>
+          <t>-10,88; 1,69</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,12%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>-7,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-10,85%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 3,64</t>
+          <t>-33,5; 10,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 16,88</t>
+          <t>-25,35; 13,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 5,45</t>
+          <t>-24,94; 3,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-10,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-7,74</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -3,36</t>
+          <t>-15,95; -3,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,52; -4,96</t>
+          <t>-10,41; 0,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,05; -5,44</t>
+          <t>-11,83; -3,36</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>-17,88%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -5,25</t>
+          <t>-38,36; -9,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,07; -7,71</t>
+          <t>-21,42; 1,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -8,62</t>
+          <t>-26,35; -8,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-5,75</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,96</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-5,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,92; -1,56</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; -1,31</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; -2,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-14,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-12,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; -4,09</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-18,07; -2,74</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; -6,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.679976989205525</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.675377729746446</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.463361745870266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 19,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,14; 4,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,81; 8,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.41374440932829</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.82466632499839</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.28921419028586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-10,07%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,77%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.0691319003145</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.821541911712398</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.811512419424058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-24,82; 50,18</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,92; 6,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,89; 14,81</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.07892016517875237</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1037278599361136</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.09548773557382921</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2939606529787767</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2425377275574484</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2280528482615117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,56; 7,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,54; 0,76</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 1,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2270182584191798</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.0868435336132317</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.06125982477449513</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,09%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-15,64%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-11,24%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.024052777528988</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-11.00763532087676</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.786931961022781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-25,8; 22,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-29,26; 1,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-23,48; 3,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.06923880226931</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.37086925336066</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.32802745767779</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.158751138327057</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.257755872864909</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-1.146488121009649</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,37; 3,6</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,94; 4,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,88; 1,69</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1022104112486977</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1710171248734772</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1418693597163415</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-13,99%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-7,85%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-10,85%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2636847638601735</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2859775575217294</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2492231403994796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-33,5; 10,34</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-25,35; 13,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-24,94; 3,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1192668013429928</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.03725679365868426</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.0191825054184306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-10,32</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-5,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-7,74</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-9.161896190861318</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.694986499650932</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.969402427158855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-15,95; -3,74</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; 0,77</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,83; -3,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-21.76656894016585</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.26673157972749</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-14.79385214192039</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-26,29%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-10,56%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-17,88%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.717343737723928</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.766756630998826</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.7248715393417248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-38,36; -9,91</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 1,79</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-26,35; -8,12</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1530304597746431</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.07217832626749614</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.111153503159951</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-4,96</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3258245860989449</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2177595003916618</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.221908923557606</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-9,92; -1,56</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; -1,31</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-8,41; -2,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.05542053184709085</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.079935537208057</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.01210262821152016</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-14,62%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-12,25%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.775260888605539</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-8.112715343367471</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-7.633774518751435</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-23,83; -4,09</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-18,07; -2,74</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-18,5; -6,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-13.99010957285204</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-14.12449699738076</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.07694115290128</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.4921141743117909</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-2.555112494022989</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-2.585439379404862</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.114224338284813</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1215771272054867</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1203545334442117</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2198970610350371</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2019725551710118</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1832363412308776</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.009240790759391408</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.03958256761475244</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.04286220140905203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
